--- a/inventory/db/template.xlsx
+++ b/inventory/db/template.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,52 +442,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>my a</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>a3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>my a</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
         <v>7</v>
       </c>
     </row>

--- a/inventory/db/template.xlsx
+++ b/inventory/db/template.xlsx
@@ -1,41 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="גיליון1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="דצמבר 2021" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="6">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color rgb="FF006100"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF33CC"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FFE7E6E6"/>
+      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -43,17 +91,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -126,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -136,44 +242,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -200,14 +306,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -234,6 +341,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -245,160 +353,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -414,85 +493,651 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col width="8.69921875" customWidth="1" style="14" min="1" max="6"/>
+    <col width="17.09765625" customWidth="1" style="14" min="7" max="7"/>
+    <col width="10.296875" customWidth="1" style="14" min="8" max="8"/>
+    <col width="36.3984375" customWidth="1" style="14" min="9" max="9"/>
+    <col width="8.69921875" customWidth="1" style="14" min="10" max="11"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>a3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>my a</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="1" ht="14.25" customHeight="1" s="14">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>שם</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>כתובת</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>שכונה</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>עיר</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>נייד/טל'</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>תאור פריט</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>קטגוריית מוצר</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>תאריך</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>הערות</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" s="14">
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>הודעה במייל</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" s="14">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>קרית אתא</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" s="14">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ירושלים</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" s="14">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>תל אביב</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>הודעה במושיבון</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" s="14">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>פינסקר 15 חיפה</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" s="14">
+      <c r="I7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" s="14">
+      <c r="I8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" s="14">
+      <c r="I9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" s="14">
+      <c r="I10" s="6" t="n"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" s="14">
+      <c r="I11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" s="14">
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>הודעה במייל</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" s="14">
+      <c r="I13" s="7" t="inlineStr">
+        <is>
+          <t>מכונבת כביסה מצוינת-צריכה לפנות מהר</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" s="14">
+      <c r="I14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" s="14">
+      <c r="I15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" s="14">
+      <c r="I16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" s="14">
+      <c r="I17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" s="14">
+      <c r="I18" s="6" t="n"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" s="14">
+      <c r="I19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" s="14">
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>דחוףףףףף</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" s="14">
+      <c r="I21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" s="14"/>
+    <row r="23" ht="14.25" customHeight="1" s="14"/>
+    <row r="24" ht="14.25" customHeight="1" s="14">
+      <c r="I24" s="5" t="n"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" s="14">
+      <c r="I25" s="5" t="n"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" s="14">
+      <c r="I26" s="5" t="n"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" s="14">
+      <c r="I27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" s="14">
+      <c r="I28" s="8" t="n"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1" s="14">
+      <c r="I29" s="5" t="n"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1" s="14">
+      <c r="I30" s="5" t="n"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1" s="14">
+      <c r="I31" s="5" t="n"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1" s="14">
+      <c r="I32" s="5" t="n"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" s="14">
+      <c r="I33" s="5" t="n"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" s="14">
+      <c r="I34" s="5" t="n"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1" s="14">
+      <c r="I35" s="5" t="n"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1" s="14">
+      <c r="I36" s="5" t="n"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1" s="14">
+      <c r="I37" s="9" t="inlineStr">
+        <is>
+          <t>דחוף!!!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1" s="14">
+      <c r="I38" s="9" t="inlineStr">
+        <is>
+          <t>הכי דחוף</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1" s="14">
+      <c r="I39" s="5" t="n"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1" s="14">
+      <c r="I40" s="5" t="n"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1" s="14">
+      <c r="I41" s="5" t="n"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1" s="14">
+      <c r="I42" s="9" t="inlineStr">
+        <is>
+          <t>דחוף מאוד</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1" s="14">
+      <c r="I43" s="5" t="n"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1" s="14">
+      <c r="I44" s="5" t="n"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1" s="14">
+      <c r="I45" s="5" t="n"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1" s="14">
+      <c r="I46" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">עד כאן הועברו לניבה ב 7.11 ב - 12 בצהריים </t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1" s="14">
+      <c r="I47" s="11" t="n"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1" s="14">
+      <c r="I48" s="5" t="n"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1" s="14">
+      <c r="I49" s="5" t="n"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1" s="14">
+      <c r="I50" s="5" t="n"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1" s="14">
+      <c r="I51" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">דרך מכבי חיפה מתנדבים אצלנו דחוף. מאוד למחר שוברים קירות </t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1" s="14">
+      <c r="I52" s="5" t="n"/>
+    </row>
+    <row r="53" ht="14.25" customHeight="1" s="14">
+      <c r="I53" s="5" t="n"/>
+    </row>
+    <row r="54" ht="14.25" customHeight="1" s="14">
+      <c r="I54" s="5" t="n"/>
+    </row>
+    <row r="55" ht="14.25" customHeight="1" s="14">
+      <c r="I55" s="5" t="n"/>
+    </row>
+    <row r="56" ht="14.25" customHeight="1" s="14">
+      <c r="I56" s="13" t="n"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1" s="14">
+      <c r="I57" s="13" t="n"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1" s="14">
+      <c r="I58" s="5" t="n"/>
+    </row>
+    <row r="59" ht="14.25" customHeight="1" s="14">
+      <c r="I59" s="5" t="n"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1" s="14">
+      <c r="I60" s="5" t="inlineStr">
+        <is>
+          <t>הודעה במייל</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1" s="14">
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>הודעה במייל</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1" s="14">
+      <c r="I62" s="5" t="n"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1" s="14">
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>הודעה במייל</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1" s="14">
+      <c r="I64" s="5" t="n"/>
+    </row>
+    <row r="65" ht="14.25" customHeight="1" s="14">
+      <c r="I65" s="5" t="n"/>
+    </row>
+    <row r="66" ht="14.25" customHeight="1" s="14">
+      <c r="I66" s="5" t="n"/>
+    </row>
+    <row r="67" ht="14.25" customHeight="1" s="14">
+      <c r="I67" s="5" t="n"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1" s="14">
+      <c r="I68" s="5" t="inlineStr">
+        <is>
+          <t>הודעה בוואצאפ</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1" s="14">
+      <c r="I69" s="5" t="n"/>
+    </row>
+    <row r="70" ht="14.25" customHeight="1" s="14"/>
+    <row r="71" ht="14.25" customHeight="1" s="14"/>
+    <row r="72" ht="14.25" customHeight="1" s="14">
+      <c r="I72" s="5" t="inlineStr">
+        <is>
+          <t>הודעה במושיבון</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1" s="14">
+      <c r="I73" s="5" t="n"/>
+    </row>
+    <row r="74" ht="14.25" customHeight="1" s="14">
+      <c r="I74" s="5" t="n"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1" s="14">
+      <c r="I75" s="5" t="n"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1" s="14">
+      <c r="I76" s="5" t="inlineStr">
+        <is>
+          <t>טל' נוסף 04-8260628/050-2919001</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1" s="14">
+      <c r="I77" s="5" t="inlineStr">
+        <is>
+          <t>הודעה במייל</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1" s="14">
+      <c r="I78" s="5" t="n"/>
+    </row>
+    <row r="79" ht="14.25" customHeight="1" s="14"/>
+    <row r="80" ht="14.25" customHeight="1" s="14"/>
+    <row r="81" ht="14.25" customHeight="1" s="14">
+      <c r="I81" s="5" t="inlineStr">
+        <is>
+          <t>הודעה במייל</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1" s="14">
+      <c r="I82" s="5" t="inlineStr">
+        <is>
+          <t>הודעה במייל</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1" s="14">
+      <c r="I83" s="5" t="inlineStr">
+        <is>
+          <t>טלפון</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1" s="14">
+      <c r="I84" s="5" t="inlineStr">
+        <is>
+          <t>טלפון - לבקש תמונות</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1" s="14">
+      <c r="I85" s="5" t="inlineStr">
+        <is>
+          <t>טלפון</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1" s="14">
+      <c r="I86" s="5" t="inlineStr">
+        <is>
+          <t>טלפון</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1" s="14">
+      <c r="I87" s="5" t="n"/>
+    </row>
+    <row r="88" ht="14.25" customHeight="1" s="14">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Name1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Address1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Street1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>City1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Phone1</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Description1</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Category1</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Date1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Comments1</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Email1</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="14.25" customHeight="1" s="14">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Name2</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Address1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Street1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>City1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Phone1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Description1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Category1</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Date1</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Comments1</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Email1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1" s="14">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Name2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Address1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Street1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>City1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Phone1</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Description1</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Category1</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Date1</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Comments1</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Email1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="14.25" customHeight="1" s="14">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Name2</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Address1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Street1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>City1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Phone1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Description1</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Category1</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Date1</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Comments1</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Email1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1" s="14"/>
+    <row r="93" ht="14.25" customHeight="1" s="14"/>
+    <row r="94" ht="14.25" customHeight="1" s="14"/>
+    <row r="95" ht="14.25" customHeight="1" s="14"/>
+    <row r="96" ht="14.25" customHeight="1" s="14"/>
+    <row r="97" ht="14.25" customHeight="1" s="14"/>
+    <row r="98" ht="14.25" customHeight="1" s="14"/>
+    <row r="99" ht="14.25" customHeight="1" s="14"/>
+    <row r="100" ht="14.25" customHeight="1" s="14"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -502,14 +1147,109 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>שם</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>כתובת</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>שכונה</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>עיר</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>נייד/טל'</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>תאור</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>קטגוריית מוצר</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>תאריך</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>הערות</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>דביר דוד ביטון</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>מוסאל יצחק 11 ב, ראשון לציון - ישראל</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0522384238/03-9588260</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>כמו חדש/שידה חומה גדולה/טוסטר אובן</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>שידה חומה גדולה/טוסטר אובן</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>23 בנובמבר 2021</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>זה טסט שאני כותב מה הולך אחי</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>dbiton@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>